--- a/XPlanningEvaluation/data/study/prefinterp/prepilot.xlsx
+++ b/XPlanningEvaluation/data/study/prefinterp/prepilot.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsukkerd/Projects/explainable-planning/XPlanningEvaluation/data/study/prefinterp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87569309-60D3-E64F-B649-08B7812ABBC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552EE13-F5E5-A04F-97F2-291EA99325B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="460" windowWidth="28680" windowHeight="17440" activeTab="1" xr2:uid="{F41DCA04-0747-C041-84F3-39AD0D785854}"/>
+    <workbookView xWindow="41220" yWindow="1660" windowWidth="28680" windowHeight="17440" activeTab="2" xr2:uid="{F41DCA04-0747-C041-84F3-39AD0D785854}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant 1" sheetId="1" r:id="rId1"/>
     <sheet name="Participant 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Participant 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Question</t>
   </si>
@@ -188,6 +189,15 @@
   </si>
   <si>
     <t>Rank of answers: choice 1,0,3,4,2. Correct rank is: 0,1,4,3,2.</t>
+  </si>
+  <si>
+    <t>Ordering</t>
+  </si>
+  <si>
+    <t>Ordering Confidence (5-point)</t>
+  </si>
+  <si>
+    <t>mission40</t>
   </si>
 </sst>
 </file>
@@ -794,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55947D9-3C8A-054D-8486-84C06D240FE1}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,4 +1035,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306D34C0-471E-0E47-83F6-BBCE090A29FF}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>'Participant 1'!A1</f>
+        <v>Question</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'Participant 1'!B1</f>
+        <v>Map</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'Participant 1'!C1</f>
+        <v>WADD Pattern (T-C-I)</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'Participant 1'!D1</f>
+        <v># Choices</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'Participant 1'!E1</f>
+        <v>Answer</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="str">
+        <f>'Participant 1'!G1</f>
+        <v>Optimality Score</v>
+      </c>
+      <c r="J1" t="str">
+        <f>'Participant 1'!H1</f>
+        <v>Answer Rank</v>
+      </c>
+      <c r="K1" t="str">
+        <f>'Participant 1'!I1</f>
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XPlanningEvaluation/data/study/prefinterp/prepilot.xlsx
+++ b/XPlanningEvaluation/data/study/prefinterp/prepilot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsukkerd/Projects/explainable-planning/XPlanningEvaluation/data/study/prefinterp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552EE13-F5E5-A04F-97F2-291EA99325B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F06BB8-796E-4546-BA87-E7CEE4905AB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41220" yWindow="1660" windowWidth="28680" windowHeight="17440" activeTab="2" xr2:uid="{F41DCA04-0747-C041-84F3-39AD0D785854}"/>
+    <workbookView xWindow="5640" yWindow="740" windowWidth="28680" windowHeight="17440" activeTab="2" xr2:uid="{F41DCA04-0747-C041-84F3-39AD0D785854}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>Question</t>
   </si>
@@ -198,6 +198,33 @@
   </si>
   <si>
     <t>mission40</t>
+  </si>
+  <si>
+    <t>choicePolicy: 3,4,0,2,1</t>
+  </si>
+  <si>
+    <t>mission52</t>
+  </si>
+  <si>
+    <t>choicePolicy: 1,2,0</t>
+  </si>
+  <si>
+    <t>mission54</t>
+  </si>
+  <si>
+    <t>choicePolicy: 1,0,2</t>
+  </si>
+  <si>
+    <t>choicePolicy: 0,1,2</t>
+  </si>
+  <si>
+    <t>mission55</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>GHC7-map3</t>
   </si>
 </sst>
 </file>
@@ -233,8 +260,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,21 +1068,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306D34C0-471E-0E47-83F6-BBCE090A29FF}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1090,7 +1120,7 @@
         <f>'Participant 1'!G1</f>
         <v>Optimality Score</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Participant 1'!H1</f>
         <v>Answer Rank</v>
       </c>
@@ -1111,6 +1141,120 @@
       </c>
       <c r="D2">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2">
+        <v>0.96788270163148604</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.95259640894535402</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0.96500755273735805</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.96389025592137101</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
